--- a/pred_ohlcv/54_21/2020-01-21 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 DAD ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-9317.833999999997</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-9176.784199999996</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-9472.754499999997</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-11671.9947</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-11663.9947</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-11789.9947</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-11896.5159</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-138158.027077136</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-133184.196677136</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-132203.323777136</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-132358.323777136</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-171568.253887142</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-177997.842987142</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-187040.792687142</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-187037.792687142</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-187037.792687142</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-187037.792687142</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-187034.792687142</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-181289.106187142</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-181289.106187142</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-181377.986587142</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-181374.986587142</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-187128.675487142</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-191417.654387142</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-195193.25177603</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-198687.56417603</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-198684.56417603</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-199295.986141347</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-199295.986141347</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-205211.260741347</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-205211.260741347</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-228921.311341347</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-266526.500841347</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-266526.500841347</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-328369.6029413471</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-328684.0902413471</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-328603.9156413471</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-328593.9156413471</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-328563.9156413471</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-328533.9156413471</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-323933.9156413471</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 DAD ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-9176.784199999996</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-9472.754499999997</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-11671.9947</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-11663.9947</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-11789.9947</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-11896.5159</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-13715.5373</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-19541.4758</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-18472.7892</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-138158.027077136</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-133184.196677136</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-132203.323777136</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-132358.323777136</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-171568.253887142</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-177997.842987142</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-187040.792687142</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-187037.792687142</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-187037.792687142</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-187037.792687142</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-187034.792687142</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-181289.106187142</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-181289.106187142</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-181374.986587142</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-187128.675487142</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-191417.654387142</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-195193.25177603</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-198687.56417603</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-198684.56417603</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-199295.986141347</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-199295.986141347</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-205211.260741347</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-205211.260741347</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-228921.311341347</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-234587.515541347</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-266526.500841347</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-266526.500841347</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-328373.6029413471</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-328373.6029413471</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-328373.6029413471</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-328684.0902413471</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-328593.9156413471</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-328563.9156413471</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-328533.9156413471</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-323933.9156413471</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-326055.9122413471</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
